--- a/data/UG/CS-BTech.xlsx
+++ b/data/UG/CS-BTech.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="guidelines" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="335">
   <si>
     <t xml:space="preserve">Please duplicate this document and give it your department's name before sharing it with us. (e.g. "Biomedical Engineering")</t>
   </si>
@@ -1078,19 +1078,19 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1151,7 +1151,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1161,19 +1161,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1181,11 +1181,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1201,19 +1201,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1225,7 +1225,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1354,7 +1354,7 @@
   </sheetPr>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1362,7 +1362,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="3" width="14.43"/>
   </cols>
@@ -2338,10 +2338,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2360,6 +2360,26 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2376,94 +2396,97 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="0" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B10" s="0" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2483,72 +2506,75 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="D2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2568,92 +2594,95 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="0" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B10" s="0" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2675,7 +2704,7 @@
   </sheetPr>
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -2685,7 +2714,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="40.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="89.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="14.43"/>
